--- a/data/trans_orig/P6516-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF9049B5-FB4A-4032-99D3-36C8860D4D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC5F7D3-C93D-4737-B8E6-4D57CD0BC162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C9BAABB-2A52-461D-938D-4AFD5DECB83B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E31959F9-CD9A-4658-BD52-0D36E344A052}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
   <si>
     <t>Población según tener que relacionarse con gente que no son compañeros durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,661 +74,652 @@
     <t>37,21%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
   </si>
   <si>
     <t>29,25%</t>
   </si>
   <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3739FF1-B0FE-46EC-AF3E-9416A79759E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A7A1B5-C936-4F92-924B-779B426C0F02}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1647,7 +1638,7 @@
         <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -1656,13 +1647,13 @@
         <v>62663</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1668,13 @@
         <v>89359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>51</v>
@@ -1692,13 +1683,13 @@
         <v>54844</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>138</v>
@@ -1707,13 +1698,13 @@
         <v>144203</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1760,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1772,13 @@
         <v>187125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -1796,13 +1787,13 @@
         <v>73497</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>233</v>
@@ -1811,13 +1802,13 @@
         <v>260622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1823,13 @@
         <v>71590</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>32</v>
@@ -1847,13 +1838,13 @@
         <v>35453</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>100</v>
@@ -1862,13 +1853,13 @@
         <v>107043</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,13 +1874,13 @@
         <v>82040</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -1898,13 +1889,13 @@
         <v>29112</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -1913,13 +1904,13 @@
         <v>111152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1925,13 @@
         <v>218139</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
@@ -1949,13 +1940,13 @@
         <v>127610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>318</v>
@@ -1964,13 +1955,13 @@
         <v>345749</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2017,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2038,13 +2029,13 @@
         <v>100521</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -2053,10 +2044,10 @@
         <v>45033</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>130</v>
@@ -2092,10 +2083,10 @@
         <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -2104,13 +2095,13 @@
         <v>27418</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>81</v>
@@ -2119,13 +2110,13 @@
         <v>84638</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2131,13 @@
         <v>85658</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -2155,13 +2146,13 @@
         <v>25315</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>106</v>
@@ -2170,13 +2161,13 @@
         <v>110973</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2182,13 @@
         <v>163035</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -2206,13 +2197,13 @@
         <v>114440</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -2221,13 +2212,13 @@
         <v>277475</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,7 +2274,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2295,13 +2286,13 @@
         <v>135242</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>85</v>
@@ -2310,13 +2301,13 @@
         <v>93938</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>227</v>
@@ -2325,13 +2316,13 @@
         <v>229181</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,13 +2337,13 @@
         <v>77767</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -2361,13 +2352,13 @@
         <v>39104</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
@@ -2376,13 +2367,13 @@
         <v>116871</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2388,13 @@
         <v>119779</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -2412,13 +2403,13 @@
         <v>58665</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>179</v>
@@ -2427,13 +2418,13 @@
         <v>178444</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2439,13 @@
         <v>223147</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>191</v>
@@ -2463,13 +2454,13 @@
         <v>197352</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>420</v>
@@ -2478,13 +2469,13 @@
         <v>420499</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2543,13 @@
         <v>572486</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>239</v>
@@ -2567,13 +2558,13 @@
         <v>254878</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>782</v>
@@ -2582,13 +2573,13 @@
         <v>827363</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2594,13 @@
         <v>282935</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>120</v>
@@ -2618,13 +2609,13 @@
         <v>130824</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>397</v>
@@ -2633,13 +2624,13 @@
         <v>413760</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2645,13 @@
         <v>342480</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>127</v>
@@ -2669,13 +2660,13 @@
         <v>130898</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>459</v>
@@ -2684,13 +2675,13 @@
         <v>473378</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2696,13 @@
         <v>707513</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>493</v>
@@ -2720,13 +2711,13 @@
         <v>506843</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>1165</v>
@@ -2735,13 +2726,13 @@
         <v>1214356</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,7 +2788,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6516-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC5F7D3-C93D-4737-B8E6-4D57CD0BC162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C228C8-2D4C-44EC-9998-BD01ADFEA300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E31959F9-CD9A-4658-BD52-0D36E344A052}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7143F303-721B-4F04-9549-328204FEC7B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
   <si>
     <t>Población según tener que relacionarse con gente que no son compañeros durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -74,652 +74,658 @@
     <t>37,21%</t>
   </si>
   <si>
-    <t>24,53%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
   </si>
   <si>
     <t>50,73%</t>
   </si>
   <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>10,97%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>49,52%</t>
   </si>
   <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A7A1B5-C936-4F92-924B-779B426C0F02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46536C1D-5AB5-46F3-B409-4804CB24F49F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1414,10 +1420,10 @@
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -1426,13 +1432,13 @@
         <v>12596</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -1441,13 +1447,13 @@
         <v>26428</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,13 +1468,13 @@
         <v>56926</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -1477,13 +1483,13 @@
         <v>24493</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -1492,18 +1498,18 @@
         <v>81419</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1515,13 +1521,13 @@
         <v>128416</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -1530,13 +1536,13 @@
         <v>35246</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>158</v>
@@ -1545,13 +1551,13 @@
         <v>163662</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,13 +1572,13 @@
         <v>62093</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -1581,13 +1587,13 @@
         <v>26614</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -1596,13 +1602,13 @@
         <v>88707</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,13 +1623,13 @@
         <v>47355</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -1632,13 +1638,13 @@
         <v>15308</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -1647,13 +1653,13 @@
         <v>62663</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,13 +1674,13 @@
         <v>89359</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>51</v>
@@ -1683,13 +1689,13 @@
         <v>54844</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>138</v>
@@ -1698,13 +1704,13 @@
         <v>144203</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,13 +1725,13 @@
         <v>327223</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
@@ -1734,13 +1740,13 @@
         <v>132012</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>443</v>
@@ -1749,18 +1755,18 @@
         <v>459235</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1772,13 +1778,13 @@
         <v>187125</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -1787,13 +1793,13 @@
         <v>73497</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>233</v>
@@ -1802,13 +1808,13 @@
         <v>260622</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1829,13 @@
         <v>71590</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>32</v>
@@ -1838,13 +1844,13 @@
         <v>35453</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>100</v>
@@ -1853,13 +1859,13 @@
         <v>107043</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1880,13 @@
         <v>82040</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -1889,13 +1895,13 @@
         <v>29112</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -1904,13 +1910,13 @@
         <v>111152</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1931,13 @@
         <v>218139</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
@@ -1940,13 +1946,13 @@
         <v>127610</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>318</v>
@@ -1955,13 +1961,13 @@
         <v>345749</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,13 +1982,13 @@
         <v>558895</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>247</v>
@@ -1991,13 +1997,13 @@
         <v>265672</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>754</v>
@@ -2006,18 +2012,18 @@
         <v>824567</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2029,13 +2035,13 @@
         <v>100521</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -2044,10 +2050,10 @@
         <v>45033</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>130</v>
@@ -2083,10 +2089,10 @@
         <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -2095,13 +2101,13 @@
         <v>27418</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>81</v>
@@ -2110,13 +2116,13 @@
         <v>84638</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2137,13 @@
         <v>85658</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -2146,13 +2152,13 @@
         <v>25315</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>106</v>
@@ -2161,13 +2167,13 @@
         <v>110973</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2188,13 @@
         <v>163035</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -2197,13 +2203,13 @@
         <v>114440</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -2212,13 +2218,13 @@
         <v>277475</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2239,13 @@
         <v>406434</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>212</v>
@@ -2248,13 +2254,13 @@
         <v>212206</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>587</v>
@@ -2263,18 +2269,18 @@
         <v>618640</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2286,13 +2292,13 @@
         <v>135242</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>85</v>
@@ -2301,13 +2307,13 @@
         <v>93938</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>227</v>
@@ -2316,13 +2322,13 @@
         <v>229181</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2343,13 @@
         <v>77767</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -2352,13 +2358,13 @@
         <v>39104</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
@@ -2367,13 +2373,13 @@
         <v>116871</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,7 +2394,7 @@
         <v>119779</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>178</v>
@@ -2454,13 +2460,13 @@
         <v>197352</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>420</v>
@@ -2469,13 +2475,13 @@
         <v>420499</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2496,13 @@
         <v>555935</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>367</v>
@@ -2505,13 +2511,13 @@
         <v>389060</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>942</v>
@@ -2520,13 +2526,13 @@
         <v>944995</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2549,13 @@
         <v>572486</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>239</v>
@@ -2558,13 +2564,13 @@
         <v>254878</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>782</v>
@@ -2573,13 +2579,13 @@
         <v>827363</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2600,13 @@
         <v>282935</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>120</v>
@@ -2609,13 +2615,13 @@
         <v>130824</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>397</v>
@@ -2624,13 +2630,13 @@
         <v>413760</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2651,13 @@
         <v>342480</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>127</v>
@@ -2660,13 +2666,13 @@
         <v>130898</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="M31" s="7">
         <v>459</v>
@@ -2675,13 +2681,13 @@
         <v>473378</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2702,13 @@
         <v>707513</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>493</v>
@@ -2711,13 +2717,13 @@
         <v>506843</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>1165</v>
@@ -2726,13 +2732,13 @@
         <v>1214356</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2753,13 @@
         <v>1905414</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>979</v>
@@ -2762,13 +2768,13 @@
         <v>1023443</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>2803</v>
@@ -2777,18 +2783,18 @@
         <v>2928857</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6516-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C228C8-2D4C-44EC-9998-BD01ADFEA300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{187DC901-FC79-478E-840F-9D208D5E3671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7143F303-721B-4F04-9549-328204FEC7B3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16D1AF71-6EB6-4935-935C-6055B30038F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
   <si>
     <t>Población según tener que relacionarse con gente que no son compañeros durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>37,21%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
   </si>
   <si>
     <t>29,25%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
   </si>
   <si>
     <t>34,81%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,628 +104,631 @@
     <t>25,06%</t>
   </si>
   <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
     <t>13,99%</t>
   </si>
   <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
+    <t>14,9%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>49,52%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1140,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46536C1D-5AB5-46F3-B409-4804CB24F49F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544D621D-8B51-483A-8A6B-296BC10429B7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1420,10 +1423,10 @@
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -1432,13 +1435,13 @@
         <v>12596</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -1447,13 +1450,13 @@
         <v>26428</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,13 +1471,13 @@
         <v>56926</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -1483,13 +1486,13 @@
         <v>24493</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -1498,18 +1501,18 @@
         <v>81419</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1521,13 +1524,13 @@
         <v>128416</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -1536,13 +1539,13 @@
         <v>35246</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>158</v>
@@ -1551,13 +1554,13 @@
         <v>163662</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,13 +1575,13 @@
         <v>62093</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -1587,13 +1590,13 @@
         <v>26614</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -1602,13 +1605,13 @@
         <v>88707</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,13 +1626,13 @@
         <v>47355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -1638,13 +1641,13 @@
         <v>15308</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -1725,13 +1728,13 @@
         <v>327223</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
@@ -1740,13 +1743,13 @@
         <v>132012</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>443</v>
@@ -1755,13 +1758,13 @@
         <v>459235</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,13 +1985,13 @@
         <v>558895</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>247</v>
@@ -1997,13 +2000,13 @@
         <v>265672</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>754</v>
@@ -2012,13 +2015,13 @@
         <v>824567</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,13 +2242,13 @@
         <v>406434</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>212</v>
@@ -2254,13 +2257,13 @@
         <v>212206</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>587</v>
@@ -2269,13 +2272,13 @@
         <v>618640</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2346,13 @@
         <v>77767</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -2358,13 +2361,13 @@
         <v>39104</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
@@ -2373,13 +2376,13 @@
         <v>116871</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2397,13 @@
         <v>119779</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -2409,13 +2412,13 @@
         <v>58665</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>179</v>
@@ -2424,13 +2427,13 @@
         <v>178444</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2448,13 @@
         <v>223147</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>191</v>
@@ -2460,13 +2463,13 @@
         <v>197352</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>420</v>
@@ -2475,13 +2478,13 @@
         <v>420499</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,13 +2499,13 @@
         <v>555935</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>367</v>
@@ -2511,13 +2514,13 @@
         <v>389060</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>942</v>
@@ -2526,13 +2529,13 @@
         <v>944995</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2552,13 @@
         <v>572486</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>239</v>
@@ -2564,13 +2567,13 @@
         <v>254878</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>782</v>
@@ -2579,13 +2582,13 @@
         <v>827363</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2603,13 @@
         <v>282935</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>120</v>
@@ -2615,13 +2618,13 @@
         <v>130824</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>397</v>
@@ -2630,13 +2633,13 @@
         <v>413760</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2654,13 @@
         <v>342480</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="H31" s="7">
         <v>127</v>
@@ -2666,13 +2669,13 @@
         <v>130898</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>459</v>
@@ -2681,13 +2684,13 @@
         <v>473378</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2705,13 @@
         <v>707513</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>493</v>
@@ -2717,13 +2720,13 @@
         <v>506843</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>1165</v>
@@ -2732,13 +2735,13 @@
         <v>1214356</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2756,13 @@
         <v>1905414</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>979</v>
@@ -2768,13 +2771,13 @@
         <v>1023443</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>2803</v>
@@ -2783,18 +2786,18 @@
         <v>2928857</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6516-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{187DC901-FC79-478E-840F-9D208D5E3671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BC1EEA1-4CCE-40EF-BCC4-CBC3BB379D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16D1AF71-6EB6-4935-935C-6055B30038F2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9D2F10DC-4795-4535-945C-9D0B7E475572}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
   <si>
     <t>Población según tener que relacionarse con gente que no son compañeros durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -65,240 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>Muchas veces</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -410,7 +302,7 @@
     <t>45,5%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>24,73%</t>
@@ -497,9 +389,6 @@
     <t>40,11%</t>
   </si>
   <si>
-    <t>34,78%</t>
-  </si>
-  <si>
     <t>45,33%</t>
   </si>
   <si>
@@ -524,9 +413,6 @@
     <t>Capitales</t>
   </si>
   <si>
-    <t>24,33%</t>
-  </si>
-  <si>
     <t>20,56%</t>
   </si>
   <si>
@@ -534,9 +420,6 @@
   </si>
   <si>
     <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
   </si>
   <si>
     <t>28,92%</t>
@@ -1143,8 +1026,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544D621D-8B51-483A-8A6B-296BC10429B7}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1BCA48-053A-4C37-8A51-2ECA0933A338}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1261,10 +1144,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D4" s="7">
-        <v>21182</v>
+        <v>149598</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1276,10 +1159,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I4" s="7">
-        <v>7163</v>
+        <v>42409</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1291,10 +1174,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="N4" s="7">
-        <v>28345</v>
+        <v>192006</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1312,10 +1195,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7">
-        <v>14265</v>
+        <v>76358</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1327,10 +1210,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>2235</v>
+        <v>28849</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1342,10 +1225,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N5" s="7">
-        <v>16500</v>
+        <v>105207</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1363,10 +1246,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D6" s="7">
-        <v>7648</v>
+        <v>55003</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1378,10 +1261,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7">
-        <v>2498</v>
+        <v>17806</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1393,10 +1276,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="N6" s="7">
-        <v>10146</v>
+        <v>72810</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1414,10 +1297,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D7" s="7">
-        <v>13832</v>
+        <v>103191</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1429,10 +1312,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="I7" s="7">
-        <v>12596</v>
+        <v>67441</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1444,10 +1327,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="N7" s="7">
-        <v>26428</v>
+        <v>170632</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1465,10 +1348,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>56926</v>
+        <v>384150</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1480,10 +1363,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>24493</v>
+        <v>156505</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1495,10 +1378,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="N8" s="7">
-        <v>81419</v>
+        <v>540655</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1518,10 +1401,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="D9" s="7">
-        <v>128416</v>
+        <v>187125</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1533,10 +1416,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>35246</v>
+        <v>73497</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1548,10 +1431,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="N9" s="7">
-        <v>163662</v>
+        <v>260622</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1569,10 +1452,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>62093</v>
+        <v>71590</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1584,10 +1467,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>26614</v>
+        <v>35453</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1599,10 +1482,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="N10" s="7">
-        <v>88707</v>
+        <v>107043</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1620,10 +1503,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D11" s="7">
-        <v>47355</v>
+        <v>82040</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1635,10 +1518,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>15308</v>
+        <v>29112</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1647,22 +1530,22 @@
         <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="N11" s="7">
-        <v>62663</v>
+        <v>111152</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,49 +1554,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
+        <v>196</v>
+      </c>
+      <c r="D12" s="7">
+        <v>218139</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="7">
+        <v>122</v>
+      </c>
+      <c r="I12" s="7">
+        <v>127610</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="7">
+        <v>318</v>
+      </c>
+      <c r="N12" s="7">
+        <v>345749</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="D12" s="7">
-        <v>89359</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="7">
-        <v>51</v>
-      </c>
-      <c r="I12" s="7">
-        <v>54844</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" s="7">
-        <v>138</v>
-      </c>
-      <c r="N12" s="7">
-        <v>144203</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,10 +1605,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>317</v>
+        <v>507</v>
       </c>
       <c r="D13" s="7">
-        <v>327223</v>
+        <v>558895</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1737,10 +1620,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="I13" s="7">
-        <v>132012</v>
+        <v>265672</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1752,10 +1635,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>443</v>
+        <v>754</v>
       </c>
       <c r="N13" s="7">
-        <v>459235</v>
+        <v>824567</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1769,55 +1652,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D14" s="7">
-        <v>187125</v>
+        <v>100521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="I14" s="7">
-        <v>73497</v>
+        <v>45033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="N14" s="7">
-        <v>260622</v>
+        <v>145554</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,49 +1709,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D15" s="7">
-        <v>71590</v>
+        <v>57220</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I15" s="7">
-        <v>35453</v>
+        <v>27418</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N15" s="7">
-        <v>107043</v>
+        <v>84638</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,49 +1760,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D16" s="7">
-        <v>82040</v>
+        <v>85658</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="7">
+        <v>26</v>
+      </c>
+      <c r="I16" s="7">
+        <v>25315</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="7">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="7">
-        <v>27</v>
-      </c>
-      <c r="I16" s="7">
-        <v>29112</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M16" s="7">
-        <v>103</v>
-      </c>
       <c r="N16" s="7">
-        <v>111152</v>
+        <v>110973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,25 +1811,25 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="D17" s="7">
-        <v>218139</v>
+        <v>163035</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I17" s="7">
-        <v>127610</v>
+        <v>114440</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -1958,10 +1841,10 @@
         <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="N17" s="7">
-        <v>345749</v>
+        <v>277475</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>121</v>
@@ -1979,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>507</v>
+        <v>375</v>
       </c>
       <c r="D18" s="7">
-        <v>558895</v>
+        <v>406434</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1994,10 +1877,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7">
-        <v>265672</v>
+        <v>212206</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2009,10 +1892,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>754</v>
+        <v>587</v>
       </c>
       <c r="N18" s="7">
-        <v>824567</v>
+        <v>618640</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2032,49 +1915,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D19" s="7">
-        <v>100521</v>
+        <v>135242</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>85</v>
+      </c>
+      <c r="I19" s="7">
+        <v>93938</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="7">
-        <v>45</v>
-      </c>
-      <c r="I19" s="7">
-        <v>45033</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>227</v>
+      </c>
+      <c r="N19" s="7">
+        <v>229181</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="7">
-        <v>138</v>
-      </c>
-      <c r="N19" s="7">
-        <v>145554</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,49 +1966,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D20" s="7">
-        <v>57220</v>
+        <v>77767</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>35</v>
+      </c>
+      <c r="I20" s="7">
+        <v>39104</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="7">
-        <v>26</v>
-      </c>
-      <c r="I20" s="7">
-        <v>27418</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>116</v>
+      </c>
+      <c r="N20" s="7">
+        <v>116871</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M20" s="7">
-        <v>81</v>
-      </c>
-      <c r="N20" s="7">
-        <v>84638</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,49 +2017,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="D21" s="7">
-        <v>85658</v>
+        <v>119779</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>56</v>
+      </c>
+      <c r="I21" s="7">
+        <v>58665</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="7">
-        <v>26</v>
-      </c>
-      <c r="I21" s="7">
-        <v>25315</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>179</v>
+      </c>
+      <c r="N21" s="7">
+        <v>178444</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M21" s="7">
-        <v>106</v>
-      </c>
-      <c r="N21" s="7">
-        <v>110973</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,49 +2068,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="D22" s="7">
-        <v>163035</v>
+        <v>223147</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>191</v>
+      </c>
+      <c r="I22" s="7">
+        <v>197352</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="7">
-        <v>115</v>
-      </c>
-      <c r="I22" s="7">
-        <v>114440</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>420</v>
+      </c>
+      <c r="N22" s="7">
+        <v>420499</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M22" s="7">
-        <v>262</v>
-      </c>
-      <c r="N22" s="7">
-        <v>277475</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,10 +2119,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="D23" s="7">
-        <v>406434</v>
+        <v>555935</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2251,10 +2134,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>212</v>
+        <v>367</v>
       </c>
       <c r="I23" s="7">
-        <v>212206</v>
+        <v>389060</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2266,10 +2149,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>587</v>
+        <v>942</v>
       </c>
       <c r="N23" s="7">
-        <v>618640</v>
+        <v>944995</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2283,55 +2166,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>142</v>
+        <v>543</v>
       </c>
       <c r="D24" s="7">
-        <v>135242</v>
+        <v>572486</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="7">
+        <v>239</v>
+      </c>
+      <c r="I24" s="7">
+        <v>254878</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="7">
-        <v>85</v>
-      </c>
-      <c r="I24" s="7">
-        <v>93938</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>782</v>
+      </c>
+      <c r="N24" s="7">
+        <v>827363</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="M24" s="7">
-        <v>227</v>
-      </c>
-      <c r="N24" s="7">
-        <v>229181</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,49 +2223,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="D25" s="7">
-        <v>77767</v>
+        <v>282935</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="7">
+        <v>120</v>
+      </c>
+      <c r="I25" s="7">
+        <v>130824</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H25" s="7">
-        <v>35</v>
-      </c>
-      <c r="I25" s="7">
-        <v>39104</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>397</v>
+      </c>
+      <c r="N25" s="7">
+        <v>413760</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="M25" s="7">
-        <v>116</v>
-      </c>
-      <c r="N25" s="7">
-        <v>116871</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,49 +2274,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>123</v>
+        <v>332</v>
       </c>
       <c r="D26" s="7">
-        <v>119779</v>
+        <v>342480</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="7">
+        <v>127</v>
+      </c>
+      <c r="I26" s="7">
+        <v>130898</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>459</v>
+      </c>
+      <c r="N26" s="7">
+        <v>473378</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H26" s="7">
-        <v>56</v>
-      </c>
-      <c r="I26" s="7">
-        <v>58665</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M26" s="7">
-        <v>179</v>
-      </c>
-      <c r="N26" s="7">
-        <v>178444</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,49 +2325,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>229</v>
+        <v>672</v>
       </c>
       <c r="D27" s="7">
-        <v>223147</v>
+        <v>707513</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H27" s="7">
+        <v>493</v>
+      </c>
+      <c r="I27" s="7">
+        <v>506843</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>1165</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1214356</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="H27" s="7">
-        <v>191</v>
-      </c>
-      <c r="I27" s="7">
-        <v>197352</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M27" s="7">
-        <v>420</v>
-      </c>
-      <c r="N27" s="7">
-        <v>420499</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>575</v>
+        <v>1824</v>
       </c>
       <c r="D28" s="7">
-        <v>555935</v>
+        <v>1905414</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2508,10 +2391,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>367</v>
+        <v>979</v>
       </c>
       <c r="I28" s="7">
-        <v>389060</v>
+        <v>1023443</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2523,10 +2406,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>942</v>
+        <v>2803</v>
       </c>
       <c r="N28" s="7">
-        <v>944995</v>
+        <v>2928857</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2539,273 +2422,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>543</v>
-      </c>
-      <c r="D29" s="7">
-        <v>572486</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H29" s="7">
-        <v>239</v>
-      </c>
-      <c r="I29" s="7">
-        <v>254878</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M29" s="7">
-        <v>782</v>
-      </c>
-      <c r="N29" s="7">
-        <v>827363</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>277</v>
-      </c>
-      <c r="D30" s="7">
-        <v>282935</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H30" s="7">
-        <v>120</v>
-      </c>
-      <c r="I30" s="7">
-        <v>130824</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M30" s="7">
-        <v>397</v>
-      </c>
-      <c r="N30" s="7">
-        <v>413760</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>332</v>
-      </c>
-      <c r="D31" s="7">
-        <v>342480</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H31" s="7">
-        <v>127</v>
-      </c>
-      <c r="I31" s="7">
-        <v>130898</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M31" s="7">
-        <v>459</v>
-      </c>
-      <c r="N31" s="7">
-        <v>473378</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>672</v>
-      </c>
-      <c r="D32" s="7">
-        <v>707513</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H32" s="7">
-        <v>493</v>
-      </c>
-      <c r="I32" s="7">
-        <v>506843</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1165</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1214356</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1824</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1905414</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>979</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1023443</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2803</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2928857</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>231</v>
+      <c r="A29" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
